--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
@@ -1706,7 +1706,7 @@
     <t>ressourceProfession</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J186-ProfessionRessource-ROR/FHIR/JDV_J186-ProfessionRessource-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J186-ProfessionRessource-ROR/FHIR/JDV-J186-ProfessionRessource-ROR</t>
   </si>
   <si>
     <t>HealthcareService.characteristic:specificCompetence</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -433,7 +433,7 @@
     <t>ror-healthcareservice-patient-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-patient-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-patient-type}
 </t>
   </si>
   <si>
@@ -450,7 +450,7 @@
     <t>ror-healthcareservice-psychiatric-sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-psychiatric-sector}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-psychiatric-sector}
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
     <t>ror-healthcareservice-competence-ressource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-competence-ressource}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-competence-ressource}
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>ror-healthcareservice-equipement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-equipement}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-equipement}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>ror-healthcareservice-intervention-zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-intervention-zone}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-intervention-zone}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>ror-healthcareservice-sensitive-unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-sensitive-unit}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-sensitive-unit}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>ror-healthcareservice-opening-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-opening-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-opening-date}
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>ror-healthcareservice-reception-mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-reception-mode}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-reception-mode}
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>ror-healthcareservice-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-contact}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-contact}
 </t>
   </si>
   <si>
@@ -1131,7 +1131,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1141,7 +1141,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1883,7 +1883,7 @@
     <t>ror-healthcareservice-open-close</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-open-close}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-open-close}
 </t>
   </si>
   <si>
@@ -1893,7 +1893,7 @@
     <t>ror-healthcareservice-definitely-close</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-definitely-close}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-definitely-close}
 </t>
   </si>
   <si>
@@ -1903,7 +1903,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1913,7 +1913,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -1923,7 +1923,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
@@ -2348,7 +2348,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,7 +433,7 @@
     <t>ror-healthcareservice-patient-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-patient-type}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-patient-type}
 </t>
   </si>
   <si>
@@ -450,7 +450,7 @@
     <t>ror-healthcareservice-psychiatric-sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-psychiatric-sector}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-psychiatric-sector}
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
     <t>ror-healthcareservice-competence-ressource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-competence-ressource}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-competence-ressource}
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>ror-healthcareservice-equipement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-equipement}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-equipement}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>ror-healthcareservice-intervention-zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-intervention-zone}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-intervention-zone}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>ror-healthcareservice-sensitive-unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-sensitive-unit}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-sensitive-unit}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>ror-healthcareservice-opening-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-opening-date}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-opening-date}
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>ror-healthcareservice-reception-mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-reception-mode}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-reception-mode}
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>ror-healthcareservice-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-contact}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-contact}
 </t>
   </si>
   <si>
@@ -1131,7 +1131,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1141,7 +1141,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1883,7 +1883,7 @@
     <t>ror-healthcareservice-open-close</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-open-close}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-open-close}
 </t>
   </si>
   <si>
@@ -1893,7 +1893,7 @@
     <t>ror-healthcareservice-definitely-close</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-definitely-close}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-definitely-close}
 </t>
   </si>
   <si>
@@ -1903,7 +1903,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1913,7 +1913,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -1923,7 +1923,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
@@ -2348,7 +2348,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.25390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>80</v>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>80</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créée dans le cadre du ROR</t>
+    <t>Profil créé à partir de la ressource HealthcareService dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
